--- a/Team-Data/2008-09/11-27-2008-09.xlsx
+++ b/Team-Data/2008-09/11-27-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU2" t="n">
         <v>17</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX2" t="n">
         <v>14</v>
@@ -880,10 +880,10 @@
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.867</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.343</v>
       </c>
       <c r="O3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="P3" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.761</v>
+        <v>0.751</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -1017,28 +1017,28 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
         <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
@@ -1053,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
         <v>28</v>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1175,13 +1175,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>17</v>
@@ -1238,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1279,121 +1279,121 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>85.3</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W5" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>3</v>
@@ -1402,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1420,19 +1420,19 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>27</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>17</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.857</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.4</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.491</v>
+        <v>0.487</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P6" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U6" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z6" t="n">
         <v>20.9</v>
       </c>
-      <c r="V6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>20.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.7</v>
+        <v>10.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1554,31 +1554,31 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM6" t="n">
         <v>8</v>
       </c>
-      <c r="AM6" t="n">
-        <v>6</v>
-      </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1590,10 +1590,10 @@
         <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1602,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1739,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>22</v>
@@ -1754,10 +1754,10 @@
         <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1793,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1903,7 +1903,7 @@
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1921,13 +1921,13 @@
         <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
@@ -1948,16 +1948,16 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -2085,7 +2085,7 @@
         <v>0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
@@ -2103,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -2115,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2124,13 +2124,13 @@
         <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
@@ -2154,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>20</v>
@@ -2267,13 +2267,13 @@
         <v>-3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2282,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>3</v>
@@ -2291,10 +2291,10 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
@@ -2303,13 +2303,13 @@
         <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
         <v>22</v>
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2449,19 +2449,19 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2470,22 +2470,22 @@
         <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2503,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW11" t="n">
         <v>23</v>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>25</v>
@@ -2631,10 +2631,10 @@
         <v>1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2658,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
         <v>12</v>
@@ -2703,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>13</v>
@@ -2813,7 +2813,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2837,10 +2837,10 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN13" t="n">
         <v>29</v>
@@ -2876,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>22</v>
@@ -2917,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
         <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.38</v>
+        <v>0.394</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R14" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="U14" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3019,37 +3019,37 @@
         <v>8</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3058,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3210,13 +3210,13 @@
         <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3225,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3234,7 +3234,7 @@
         <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
         <v>24</v>
@@ -3246,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
@@ -3359,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3386,16 +3386,16 @@
         <v>7</v>
       </c>
       <c r="AM16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
@@ -3419,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0.438</v>
+        <v>0.412</v>
       </c>
       <c r="H17" t="n">
         <v>48.9</v>
       </c>
       <c r="I17" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3493,13 +3493,13 @@
         <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.754</v>
@@ -3508,19 +3508,19 @@
         <v>13.4</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.9</v>
+        <v>44.2</v>
       </c>
       <c r="U17" t="n">
         <v>20.4</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.4</v>
@@ -3529,34 +3529,34 @@
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="AB17" t="n">
         <v>95.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3565,28 +3565,28 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3595,19 +3595,19 @@
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3729,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3759,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
@@ -3792,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3905,7 +3905,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3944,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3959,19 +3959,19 @@
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>9</v>
@@ -4111,16 +4111,16 @@
         <v>5</v>
       </c>
       <c r="AL20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4138,7 +4138,7 @@
         <v>27</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4150,19 +4150,19 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
         <v>22</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,7 +4269,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4284,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4326,7 +4326,7 @@
         <v>14</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4341,10 +4341,10 @@
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4451,7 +4451,7 @@
         <v>-13</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4487,7 +4487,7 @@
         <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>16</v>
@@ -4633,10 +4633,10 @@
         <v>5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4669,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4696,19 +4696,19 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>5</v>
       </c>
       <c r="BB23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4815,7 +4815,7 @@
         <v>1.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>14</v>
@@ -4833,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>19</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW24" t="n">
         <v>19</v>
@@ -4997,10 +4997,10 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
         <v>5</v>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -5027,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -5036,13 +5036,13 @@
         <v>7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
@@ -5054,13 +5054,13 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
         <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5101,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.7</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="O26" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13.4</v>
       </c>
       <c r="S26" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W26" t="n">
         <v>7.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
@@ -5227,34 +5227,34 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>13</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5376,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5394,7 +5394,7 @@
         <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
         <v>25</v>
@@ -5424,16 +5424,16 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5543,13 +5543,13 @@
         <v>1.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -5558,19 +5558,19 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="n">
         <v>25</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5588,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
         <v>25</v>
@@ -5725,7 +5725,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5740,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>26</v>
@@ -5752,13 +5752,13 @@
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5907,22 +5907,22 @@
         <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>21</v>
@@ -5940,13 +5940,13 @@
         <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5955,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5976,10 +5976,10 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
         <v>7</v>
@@ -6089,13 +6089,13 @@
         <v>-6.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6158,7 +6158,7 @@
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>

--- a/Team-Data/2008-09/11-27-2008-09.xlsx
+++ b/Team-Data/2008-09/11-27-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -780,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -792,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU2" t="n">
         <v>17</v>
@@ -801,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX2" t="n">
         <v>14</v>
@@ -813,10 +880,10 @@
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.867</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.343</v>
       </c>
       <c r="O3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="P3" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.761</v>
+        <v>0.751</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,34 +1017,34 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
         <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
         <v>28</v>
@@ -998,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1132,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
@@ -1141,13 +1208,13 @@
         <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>17</v>
@@ -1171,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -1212,121 +1279,121 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>85.3</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W5" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>3</v>
@@ -1335,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1353,19 +1420,19 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>27</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>17</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.857</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.4</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.491</v>
+        <v>0.487</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P6" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U6" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z6" t="n">
         <v>20.9</v>
       </c>
-      <c r="V6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>20.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.7</v>
+        <v>10.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1487,31 +1554,31 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1520,13 +1587,13 @@
         <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1672,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>22</v>
@@ -1681,16 +1748,16 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J8" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.452</v>
+        <v>0.448</v>
       </c>
       <c r="L8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M8" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>0.315</v>
+        <v>0.308</v>
       </c>
       <c r="O8" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="P8" t="n">
-        <v>32</v>
+        <v>32.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R8" t="n">
         <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41.6</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>16.3</v>
@@ -1821,52 +1888,52 @@
         <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1896,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2033,10 +2100,10 @@
         <v>20</v>
       </c>
       <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>16</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -2057,13 +2124,13 @@
         <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
@@ -2072,13 +2139,13 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>11</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2215,19 +2282,19 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
@@ -2236,13 +2303,13 @@
         <v>4</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
         <v>22</v>
@@ -2272,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2391,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -2403,22 +2470,22 @@
         <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2427,7 +2494,7 @@
         <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2436,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2585,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>28</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
         <v>15</v>
@@ -2636,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2770,10 +2837,10 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN13" t="n">
         <v>29</v>
@@ -2809,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -2850,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
         <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.38</v>
+        <v>0.394</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R14" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="U14" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2952,37 +3019,37 @@
         <v>8</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
@@ -3128,7 +3195,7 @@
         <v>27</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -3140,25 +3207,25 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
         <v>24</v>
@@ -3179,13 +3246,13 @@
         <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3316,31 +3383,31 @@
         <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>22</v>
@@ -3352,13 +3419,13 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0.438</v>
+        <v>0.412</v>
       </c>
       <c r="H17" t="n">
         <v>48.9</v>
       </c>
       <c r="I17" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3426,13 +3493,13 @@
         <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.754</v>
@@ -3441,19 +3508,19 @@
         <v>13.4</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.9</v>
+        <v>44.2</v>
       </c>
       <c r="U17" t="n">
         <v>20.4</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.4</v>
@@ -3462,34 +3529,34 @@
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="AB17" t="n">
         <v>95.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
@@ -3498,28 +3565,28 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3528,19 +3595,19 @@
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-2.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3680,19 +3747,19 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP18" t="n">
         <v>22</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
@@ -3704,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -3725,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3853,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3862,7 +3929,7 @@
         <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>9</v>
@@ -3877,34 +3944,34 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
         <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -3942,100 +4009,100 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.643</v>
+        <v>0.615</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J20" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L20" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.381</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="R20" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="T20" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="U20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z20" t="n">
         <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC20" t="n">
         <v>4.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4044,19 +4111,19 @@
         <v>5</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
@@ -4065,19 +4132,19 @@
         <v>26</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4089,13 +4156,13 @@
         <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4217,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4259,7 +4326,7 @@
         <v>14</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,10 +4341,10 @@
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-13</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4420,7 +4487,7 @@
         <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>16</v>
@@ -4447,7 +4514,7 @@
         <v>23</v>
       </c>
       <c r="AY22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>0.733</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J23" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O23" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P23" t="n">
         <v>29.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.721</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X23" t="n">
         <v>7.2</v>
-      </c>
-      <c r="X23" t="n">
-        <v>7.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>4</v>
@@ -4602,16 +4669,16 @@
         <v>5</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
@@ -4620,19 +4687,19 @@
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>5</v>
@@ -4641,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>1.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>14</v>
@@ -4766,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4784,10 +4851,10 @@
         <v>28</v>
       </c>
       <c r="AP24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>24</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
@@ -4802,10 +4869,10 @@
         <v>19</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>7</v>
@@ -4823,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>4</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4969,13 +5036,13 @@
         <v>7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
@@ -4987,16 +5054,16 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
         <v>16</v>
       </c>
       <c r="AY25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>6</v>
       </c>
       <c r="BA25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -5034,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.7</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="O26" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13.4</v>
       </c>
       <c r="S26" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W26" t="n">
         <v>7.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
       </c>
-      <c r="AP26" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
@@ -5160,34 +5227,34 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>13</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5327,10 +5394,10 @@
         <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5357,16 +5424,16 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>1.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
@@ -5491,19 +5558,19 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="n">
         <v>25</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5521,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5673,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>26</v>
@@ -5685,13 +5752,13 @@
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5712,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="AV29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5727,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
@@ -5849,16 +5916,16 @@
         <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5873,13 +5940,13 @@
         <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5909,10 +5976,10 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
@@ -5944,91 +6011,91 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.154</v>
+        <v>0.167</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J31" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L31" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.282</v>
+        <v>0.291</v>
       </c>
       <c r="O31" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P31" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="T31" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="V31" t="n">
         <v>13.5</v>
       </c>
       <c r="W31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>5.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6037,7 +6104,7 @@
         <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6046,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="AL31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6055,31 +6122,31 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
         <v>20</v>
@@ -6088,16 +6155,16 @@
         <v>20</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-27-2008-09</t>
+          <t>2008-11-27</t>
         </is>
       </c>
     </row>
